--- a/keyword_search_results.xlsx
+++ b/keyword_search_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,4997 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13890000000029</v>
+        <v>15160000000027</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>example 2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15140000000031</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>example 3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12200000000031</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>example 4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10740000000028</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>example 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8510000000028</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>example 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8960000000028</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>example 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9720000000032</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>example 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8000000000030</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>example 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7820000000034</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>example 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>12110000000031</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>example 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8670000000043</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>example 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9960000000036</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>example 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6660000000029</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>example 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7730000000030</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>example 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6860000000031</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>example 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6570000000026</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>example 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6740000000027</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>example 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4820000000031</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>example 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5230000000031</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>example 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6720000000027</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>example 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5200000000024</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>example 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5530000000029</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>example 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>7270000000027</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>example 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5370000000028</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>example 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5090000000030</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>example 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3640000000023</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>example 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3550000000026</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>example 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5200000000026</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>example 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3880000000026</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>example 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6230000000027</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>example 31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3100000000026</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>example 32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3290000000026</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>example 33</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3280000000027</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>example 34</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4590000000039</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>example 35</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>4010000000025</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>example 36</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2630000000030</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>example 37</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2880000000027</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>example 38</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3240000000026</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>example 39</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2560000000024</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>example 40</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3560000000027</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>example 41</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2370000000028</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>example 42</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2800000000076</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>example 43</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2040000000033</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>example 44</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4570000000034</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>example 45</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5460000000030</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>example 46</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2620000000026</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>example 47</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2830000000024</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>example 48</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>5260000000028</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>example 49</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3920000000032</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>example 50</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>6250000000030</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>example 51</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3860000000029</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>example 52</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>4070000000031</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>example 53</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4160000000033</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>example 54</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1940000000027</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>example 55</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2480000000029</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>example 56</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2180000000026</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>example 57</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>4240000000032</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>example 58</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>4460000000028</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>example 59</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3540000000029</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>example 60</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5970000000032</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>example 61</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1930000000030</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>example 62</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3950000000034</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>example 63</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>4090000000029</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>example 64</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2350000000032</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>example 65</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3730000000030</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>example 66</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3460000000029</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>example 67</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3610000000041</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>example 68</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3330000000036</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>example 69</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1930000000029</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>example 70</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2580000000027</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>example 71</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>3310000000026</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>example 72</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2050000000025</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>example 73</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3130000000031</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>example 74</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2920000000032</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>example 75</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2920000000026</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>example 76</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3170000000029</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>example 77</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>3200000000027</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>example 78</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3090000000030</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>example 79</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2790000000034</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>example 80</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2720000000028</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>example 81</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>3530000000031</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>example 82</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1350000000028</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>example 83</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3220000000032</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>example 84</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1800000000024</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>example 85</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2160000000031</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>example 86</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1590000000028</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>example 87</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2590000000029</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>example 88</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3290000000030</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>example 89</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2990000000030</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>example 90</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>3040000000029</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>example 91</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2790000000026</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>example 92</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2870000000035</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>example 93</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2980000000033</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>example 94</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3120000000031</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>example 95</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1660000000027</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>example 96</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1930000000025</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>example 97</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1290000000031</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>example 98</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1370000000028</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>example 99</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3710000000032</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>example 100</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>5370000000032</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>example 101</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2020000000026</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>example 102</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2690000000033</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>example 103</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2570000000030</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>example 104</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2420000000037</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>example 105</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1200000000058</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>example 106</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>2470000000024</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>example 107</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2560000000032</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>example 108</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1070000000033</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>example 109</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2240000000033</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>example 110</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2720000000029</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>example 111</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2920000000037</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>example 112</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1060000000031</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>example 113</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>2520000000030</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>example 114</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1040000000029</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>example 115</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>930000000025</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>example 116</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>949000000073</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>example 117</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2500000000031</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>example 118</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2400000000032</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>example 119</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2770000000030</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>example 120</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1790000000025</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>example 121</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>2380000000026</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>example 122</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2200000000032</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>example 123</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1170000000040</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>example 124</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>720000000028</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>example 125</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1330000000030</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>example 126</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>2380000000033</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>example 127</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2080000000028</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>example 128</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1350000000026</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>example 129</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2140000000033</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>example 130</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2930000000026</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>example 131</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1960000000036</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>example 132</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2460000000027</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>example 133</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2440000000028</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>example 134</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2020000000028</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>example 135</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1900000000028</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>example 136</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1970000000045</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>example 137</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1860000000032</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>example 138</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2250000000028</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>example 139</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2480000000027</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>example 140</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2190000000025</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>example 141</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2080000000028</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>example 142</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1850000000027</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>example 143</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>721000000025</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>example 144</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>817000000029</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>example 145</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1860000000033</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>example 146</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1700000000031</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>example 147</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2040000000026</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>example 148</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1840000000029</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>example 149</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1810000000026</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>example 150</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1910000000027</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>example 151</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1990000000028</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>example 152</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1830000000058</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>example 153</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1850000000035</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>example 154</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1610000000049</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>example 155</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1980000000027</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>example 156</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1550000000027</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>example 157</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1650000000034</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>example 158</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1700000000031</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>example 159</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1790000000032</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>example 160</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>978000000033</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>example 161</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1750000000027</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>example 162</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1610000000029</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>example 163</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1850000000034</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>example 164</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1880000000026</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>example 165</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1890000000031</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>example 166</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1420000000027</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>example 167</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>713000000022</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>example 168</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1640000000035</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>example 169</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>545000000055</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>example 170</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1910000000026</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>example 171</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1290000000026</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>example 172</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1930000000032</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>example 173</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1650000000046</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>example 174</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>574000000026</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>example 175</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1860000000029</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>example 176</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1310000000029</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>example 177</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1300000000026</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>example 178</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1560000000029</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>example 179</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>632000000038</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>example 180</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1210000000029</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>example 181</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1280000000031</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>example 182</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1800000000027</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>example 183</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1440000000024</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>example 184</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1240000000026</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>example 185</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1830000000032</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>example 186</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1730000000029</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>example 187</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1100000000032</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>example 188</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1350000000030</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>example 189</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1340000000035</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>example 190</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1340000000031</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>example 191</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1460000000027</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>example 192</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>595000000025</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>example 193</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1650000000026</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>example 194</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1370000000028</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>example 195</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1550000000027</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>example 196</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1150000000024</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>example 197</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1240000000028</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>example 198</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1070000000029</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>example 199</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1780000000031</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>example 200</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2730000000034</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>example 201</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>929000000029</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>example 202</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>927000000026</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>example 203</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1300000000027</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>example 204</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>749000000028</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>example 205</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1700000000032</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>example 206</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>620000000025</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>example 207</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>511000000026</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>example 208</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>621000000028</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>example 209</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>614000000027</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>example 210</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>788000000027</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>example 211</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>645000000029</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>example 212</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>580000000047</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>example 213</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>609000000028</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>example 214</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>488000000030</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>example 215</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1290000000038</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>example 216</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>458000000027</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>example 217</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>671000000036</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>example 218</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>445000000028</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>example 219</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>489000000025</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>example 220</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1990000000030</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>example 221</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>539000000037</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>example 222</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>746000000028</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>example 223</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>633000000028</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>example 224</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>493000000028</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>example 225</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1980000000030</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>example 226</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>501000000028</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>example 227</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>495000000028</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>example 228</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>478000000024</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>example 229</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>646000000026</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>example 230</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1370000000031</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>example 231</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>541000000026</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>example 232</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>427000000032</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>example 233</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>561000000024</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>example 234</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>480000000027</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>example 235</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1400000000026</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>example 236</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>499000000031</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>example 237</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>490000000033</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>example 238</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>449000000030</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>example 239</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>439000000027</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>example 240</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>657000000026</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>example 241</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>474000000028</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>example 242</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>452000000028</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>example 243</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>449000000027</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>example 244</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>441000000030</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>example 245</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>523000000026</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>example 246</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>523000000023</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>example 247</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>436000000027</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>example 248</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>397000000027</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>example 249</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>448000000027</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>example 250</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1500000000025</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>example 251</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>450000000026</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>example 252</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>496000000030</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>example 253</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>509000000034</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>example 254</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>425000000033</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>example 255</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>647000000026</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>example 256</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>717000000027</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>example 257</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>480000000030</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>example 258</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>485000000027</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>example 259</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>372000000032</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>example 260</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>834000000032</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>example 261</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>440000000025</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>example 262</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>476000000027</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>example 263</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>385000000027</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>example 264</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>365000000027</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>example 265</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1200000000033</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>example 266</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>359000000025</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>example 267</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>367000000030</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>example 268</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>352000000029</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>example 269</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>389000000030</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>example 270</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>659000000029</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>example 271</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>411000000026</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>example 272</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>381000000043</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>example 273</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>386000000025</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>example 274</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>392000000042</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>example 275</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1020000000027</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>example 276</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>311000000024</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>example 277</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>339000000022</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>example 278</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>359000000029</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>example 279</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>358000000031</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>example 280</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>607000000031</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>example 281</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>424000000028</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>example 282</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>332000000030</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>example 283</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>477000000025</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>example 284</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>412000000028</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>example 285</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>680000000026</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>example 286</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>348000000026</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>example 287</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>343000000034</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>example 288</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>413000000030</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>example 289</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>440000000027</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>example 290</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>843000000026</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>example 291</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>407000000027</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>example 292</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>316000000026</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>example 293</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>381000000028</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>example 294</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>286000000025</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>example 295</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>792000000034</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>example 296</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>342000000031</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>example 297</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>403000000031</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>example 298</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>398000000028</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>example 299</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>606000000028</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>example 300</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>2010000000031</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>example 301</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>548000000042</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>example 302</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>385000000028</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>example 303</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>349000000028</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>example 304</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>338000000034</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>example 305</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>982000000028</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>example 306</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>321000000024</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>example 307</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>299000000030</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>example 308</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>290000000027</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>example 309</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>421000000028</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>example 310</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>794000000028</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>example 311</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>403000000029</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>example 312</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>415000000025</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>example 313</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>361000000029</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>example 314</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>395000000025</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>example 315</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>452000000023</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>example 316</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>416000000027</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>example 317</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>388000000028</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>example 318</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>359000000035</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>example 319</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>389000000033</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>example 320</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>877000000025</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>example 321</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>376000000031</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>example 322</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>320000000029</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>example 323</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>431000000029</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>example 324</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>284000000025</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>example 325</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>907000000030</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>example 326</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>328000000027</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>example 327</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>342000000031</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>example 328</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>315000000031</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>example 329</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>384000000030</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>example 330</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>631000000030</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>example 331</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>373000000028</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>example 332</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>275000000028</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>example 333</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>408000000029</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>example 334</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>331000000024</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>example 335</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>576000000029</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>example 336</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>317000000027</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>example 337</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>277000000026</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>example 338</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>315000000024</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>example 339</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>299000000030</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>example 340</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>338000000027</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>example 341</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>335000000028</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>example 342</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>298000000031</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>example 343</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>301000000031</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>example 344</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>275000000029</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>example 345</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>748000000030</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>example 346</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>311000000032</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>example 347</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>336000000033</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>example 348</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>242000000028</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>example 349</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>359000000027</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>example 350</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1500000000031</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>example 351</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>340000000024</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>example 352</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>331000000028</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>example 353</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>337000000027</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>example 354</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>313000000030</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>example 355</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>526000000030</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>example 356</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>410000000030</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>example 357</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>388000000029</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>example 358</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>340000000026</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>example 359</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>370000000027</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>example 360</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>789000000024</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>example 361</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>368000000028</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>example 362</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>358000000030</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>example 363</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>282000000028</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>example 364</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>315000000029</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>example 365</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>691000000026</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>example 366</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>319000000025</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>example 367</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>284000000024</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>example 368</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>307000000029</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>example 369</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>262000000028</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>example 370</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>750000000032</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>example 371</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>399000000026</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>example 372</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>298000000028</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>example 373</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>322000000029</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>example 374</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>260000000027</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>example 375</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>592000000028</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>example 376</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>287000000030</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>example 377</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>296000000028</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>example 378</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>267000000029</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>example 379</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>298000000027</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>example 380</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>543000000024</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>example 381</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>289000000025</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>example 382</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>258000000025</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>example 383</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>251000000030</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>example 384</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>299000000027</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>example 385</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>661000000031</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>example 386</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>287000000026</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>example 387</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>311000000027</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>example 388</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>236000000027</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>example 389</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>249000000024</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>example 390</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>466000000027</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>example 391</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>299000000028</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>example 392</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>248000000026</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>example 393</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>274000000036</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>example 394</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>236000000029</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>example 395</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>425000000029</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>example 396</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>237000000026</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>example 397</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>244000000033</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>example 398</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>226000000027</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>example 399</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>264000000028</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>example 400</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1500000000026</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>example 401</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>327000000026</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>example 402</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>242000000032</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>example 403</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>345000000028</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>example 404</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>294000000026</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>example 405</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>318000000025</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>example 406</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>266000000027</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>example 407</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>269000000028</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>example 408</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>229000000027</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>example 409</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>282000000028</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>example 410</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>329000000026</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>example 411</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>269000000034</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>example 412</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>285000000028</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>example 413</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>212000000032</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>example 414</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>286000000044</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>example 415</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>337000000024</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>example 416</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>259000000026</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>example 417</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>349000000029</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>example 418</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>292000000028</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>example 419</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>337000000022</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>example 420</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>481000000025</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>example 421</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>411000000027</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>example 422</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>236000000027</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>example 423</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>284000000044</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>example 424</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>249000000028</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>example 425</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>441000000030</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>example 426</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>186000000030</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>example 427</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>214000000033</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>example 428</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>183000000028</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>example 429</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>300000000031</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>example 430</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>247000000024</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>example 431</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>288000000026</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>example 432</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>273000000030</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>example 433</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>272000000032</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>example 434</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>202000000028</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>example 435</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>334000000030</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>example 436</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>193000000033</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>example 437</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>219000000031</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>example 438</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>184000000027</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>example 439</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>288000000027</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>example 440</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>384000000027</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>example 441</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>209000000029</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>example 442</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>196000000037</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>example 443</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>241000000026</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>example 444</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>243000000036</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>example 445</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>621000000026</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>example 446</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>174000000027</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>example 447</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>229000000033</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>example 448</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>211000000028</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>example 449</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>225000000029</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>example 450</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1010000000029</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>example 451</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>218000000029</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>example 452</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>222000000042</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>example 453</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>270000000030</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>example 454</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>262000000027</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>example 455</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>344000000027</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>example 456</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>351000000041</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>example 457</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>250000000028</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>example 458</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>246000000032</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>example 459</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>223000000024</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>example 460</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>421000000028</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>example 461</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>201000000024</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>example 462</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>188000000025</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>example 463</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>216000000035</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>example 464</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>219000000027</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>example 465</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>410000000028</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>example 466</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>242000000029</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>example 467</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>243000000028</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>example 468</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>198000000038</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>example 469</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>252000000031</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>example 470</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>439000000028</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>example 471</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>269000000028</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>example 472</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>184000000027</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>example 473</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>290000000031</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>example 474</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>197000000032</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>example 475</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>254000000043</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>example 476</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>204000000032</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>example 477</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>225000000030</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>example 478</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>198000000035</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>example 479</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>226000000032</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>example 480</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>924000000034</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>example 481</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>193000000026</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>example 482</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>159000000031</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>example 483</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>190000000029</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>example 484</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>178000000029</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>example 485</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>180000000066</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>example 486</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>261000000050</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>example 487</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>214000000044</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>example 488</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>203000000029</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>example 489</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>211000000038</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>example 490</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>321000000032</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>example 491</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>200000000032</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>example 492</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>190000000025</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>example 493</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>194000000036</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>example 494</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>197000000028</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>example 495</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>589000000028</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>example 496</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>183000000028</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>example 497</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>171000000028</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>example 498</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>228000000030</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>example 499</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>255000000028</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>example 500</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>2630000000059</v>
       </c>
     </row>
   </sheetData>
